--- a/j-chaganti_filtered_repos.xlsx
+++ b/j-chaganti_filtered_repos.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,6 +433,18 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>repo-scanner</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://github.com/j-chaganti/repo-scanner</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/j-chaganti_filtered_repos.xlsx
+++ b/j-chaganti_filtered_repos.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,6 +432,16 @@
           <t>URL</t>
         </is>
       </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Export</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -442,6 +452,14 @@
       <c r="B2" t="inlineStr">
         <is>
           <t>https://github.com/j-chaganti/repo-scanner</t>
+        </is>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>changes required</t>
         </is>
       </c>
     </row>

--- a/j-chaganti_filtered_repos.xlsx
+++ b/j-chaganti_filtered_repos.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Filtered GitHub Repos" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Filtered Repositories" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>URL</t>
+          <t>Full Name</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -443,26 +443,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>repo-scanner</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>https://github.com/j-chaganti/repo-scanner</t>
-        </is>
-      </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>changes required</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
